--- a/storage/app/public/my-report.xlsx
+++ b/storage/app/public/my-report.xlsx
@@ -101,12 +101,12 @@
     <row r="2" spans="1:7" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R007</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Wohn Jick</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -121,12 +121,12 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>2023-04-26 21:49:26</t>
+          <t>2023-05-04 17:34:34</t>
         </is>
       </c>
       <c r="G2" s="0">
@@ -136,36 +136,36 @@
     <row r="3" spans="1:7" customHeight="0">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R008</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Ran Dee</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>College</t>
+          <t>Junior High School</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>Bachelor of Science in Information Technology</t>
+          <t>Junior High School</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>2023-04-27 11:00:59</t>
+          <t>2023-05-04 17:35:14</t>
         </is>
       </c>
       <c r="G3" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/my-report.xlsx
+++ b/storage/app/public/my-report.xlsx
@@ -101,32 +101,32 @@
     <row r="2" spans="1:7" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>R007</t>
+          <t>R001</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Wohn Jick</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Senior High School</t>
+          <t>Graduate School</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Accountancy, Business, and Management Strand</t>
+          <t>Master</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>2023-05-04 17:34:34</t>
+          <t>2023-05-04 23:21:13</t>
         </is>
       </c>
       <c r="G2" s="0">
@@ -136,35 +136,105 @@
     <row r="3" spans="1:7" customHeight="0">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>R008</t>
+          <t>R002</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Ran Dee</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
+          <t>Senior High School</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Accountancy, Business, and Management Strand</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:21:34</t>
+        </is>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customHeight="0">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>R003</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Mark Doe</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Information Technology</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:21:53</t>
+        </is>
+      </c>
+      <c r="G4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customHeight="0">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>R004</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Son Doe</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
           <t>Junior High School</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>Junior High School</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>2023-05-04 17:35:14</t>
-        </is>
-      </c>
-      <c r="G3" s="0">
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:22:11</t>
+        </is>
+      </c>
+      <c r="G5" s="0">
         <v>1</v>
       </c>
     </row>
